--- a/RESUME.xlsx
+++ b/RESUME.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="154">
   <si>
     <t>Start</t>
   </si>
@@ -465,6 +465,24 @@
   </si>
   <si>
     <t>ecs2.2650.pdf</t>
+  </si>
+  <si>
+    <t>Fick, Stephen E., Travis W. Nauman, Colby C. Brungard, and Michael C. Duniway. 2021. “Evaluating Natural Experiments in Ecology: Using Synthetic Controls in Assessments of Remotely Sensed Land Treatments.” Ecological Applications 31(3). doi: 10.1002/eap.2264.</t>
+  </si>
+  <si>
+    <t>Evaluating natural experiments in ecology: using synthetic controls in assessments of remotely sensed land treatments</t>
+  </si>
+  <si>
+    <t>Ecological Applications</t>
+  </si>
+  <si>
+    <t>https://authorservices.wiley.com/api/pdf/fullArticle/16946936</t>
+  </si>
+  <si>
+    <t>Fick_EcoApps_2021.pdf</t>
+  </si>
+  <si>
+    <t>Fick</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1080,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1703,6 +1721,35 @@
       <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v>Koontz</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/RESUME.xlsx
+++ b/RESUME.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Appointments" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Education" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Publications" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Service" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Teaching" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Reviews" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Appointments" sheetId="1" r:id="rId1"/>
+    <sheet name="Education" sheetId="2" r:id="rId2"/>
+    <sheet name="Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Service" sheetId="4" r:id="rId4"/>
+    <sheet name="Teaching" sheetId="5" r:id="rId5"/>
+    <sheet name="Reviews" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,552 +26,528 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="160">
   <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsibilies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accomplishments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours Worked Per Week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecology subject matter expert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant Editors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freelance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postoctoral Research Associate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Geological Survey, University of Colorado Boulder, New Mexico State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moab, UT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Associate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockholm Environment Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockholm, Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of California, Davis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheaton College (IL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summa Cum Laude</t>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Responsibilies</t>
+  </si>
+  <si>
+    <t>Accomplishments</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Hours Worked Per Week</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Ecology subject matter expert</t>
+  </si>
+  <si>
+    <t>Plant Editors</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>Postoctoral Research Associate</t>
+  </si>
+  <si>
+    <t>US Geological Survey, University of Colorado Boulder, New Mexico State University</t>
+  </si>
+  <si>
+    <t>Moab, UT</t>
+  </si>
+  <si>
+    <t>Research Associate</t>
+  </si>
+  <si>
+    <t>Stockholm Environment Institute</t>
+  </si>
+  <si>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>B.S.</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Wheaton College (IL)</t>
+  </si>
+  <si>
+    <t>Summa Cum Laude</t>
   </si>
   <si>
     <t xml:space="preserve">B.A. </t>
   </si>
   <si>
-    <t xml:space="preserve">Archaeology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Needs Global Resources (HNGR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upland Holistic Devlopment Project, Fang Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first_author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick, S. E., N. N. Barger, J. Tatarko, and M. C. Duniway. 2019. Induced biological soil crust controls on wind erodibility and dust (PM10) emissions. Earth Surface Processes and Landforms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Induced biological soil crust controls on wind erodibility and dust (PM10) emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth Surface Processes and Landforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1002/esp.4731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_Earth_Surface_Processes_and_Landforms_2019</t>
+    <t>Archaeology</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Human Needs Global Resources (HNGR)</t>
+  </si>
+  <si>
+    <t>Upland Holistic Devlopment Project, Fang Thailand</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>first_author</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Fick, S. E., N. N. Barger, J. Tatarko, and M. C. Duniway. 2019. Induced biological soil crust controls on wind erodibility and dust (PM10) emissions. Earth Surface Processes and Landforms.</t>
+  </si>
+  <si>
+    <t>Induced biological soil crust controls on wind erodibility and dust (PM10) emissions</t>
+  </si>
+  <si>
+    <t>Earth Surface Processes and Landforms</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/esp.4731</t>
+  </si>
+  <si>
+    <t>Fick_Earth_Surface_Processes_and_Landforms_2019</t>
   </si>
   <si>
     <t xml:space="preserve">Fick, S. E., J. Belnap, and M. C. Duniway. 2019. Grazing-Induced Changes to Biological Soil Crust Cover Mediate Hillslope Erosion in a Long-Term Exclosure Experiment. Rangeland Ecology &amp; Management.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Grazing-Induced Changes to Biological Soil Crust Cover Mediate Hillslope Erosion in a Long-Term Exclosure Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rangeland Ecology and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S1550742419300648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_Rangeland_Ecology_and_Management_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Published</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick, S. E., N. Barger, and M. Duniway. 2019. Hydrologic function of rapidly induced biocrusts. Ecohydrology: e2089.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrologic function of rapidly induced biocrusts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecohydrology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1002/eco.2089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_Ecohydrology_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duniway, M. C., A. A. Pfennigwerth, S. E. Fick, T. W. Nauman, J. Belnap, and N. N. Barger. 2019. Wind erosion and dust from US drylands: a review of causes, consequences, and solutions in a changing world. Ecosphere 10:e02650.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind erosion and dust from US drylands: a review of causes, consequences, and solutions in a changing world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1002/ecs2.2650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duniway_Ecosphere_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winkler, D. E., D. M. Backer, J. Belnap, J. B. Bradford, B. J. Butterfield, S. M. Copeland, M. C. Duniway, A. M. Faist, S. E. Fick, S. L. Jensen, A. T. Kramer, R. Mann, R. T. Massatti, M. L. McCormick, S. M. 
+    <t>Grazing-Induced Changes to Biological Soil Crust Cover Mediate Hillslope Erosion in a Long-Term Exclosure Experiment</t>
+  </si>
+  <si>
+    <t>Rangeland Ecology and Management</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1550742419300648</t>
+  </si>
+  <si>
+    <t>Fick_Rangeland_Ecology_and_Management_2019</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Fick, S. E., N. Barger, and M. Duniway. 2019. Hydrologic function of rapidly induced biocrusts. Ecohydrology: e2089.</t>
+  </si>
+  <si>
+    <t>Hydrologic function of rapidly induced biocrusts</t>
+  </si>
+  <si>
+    <t>Ecohydrology</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/eco.2089</t>
+  </si>
+  <si>
+    <t>Fick_Ecohydrology_2019</t>
+  </si>
+  <si>
+    <t>Duniway, M. C., A. A. Pfennigwerth, S. E. Fick, T. W. Nauman, J. Belnap, and N. N. Barger. 2019. Wind erosion and dust from US drylands: a review of causes, consequences, and solutions in a changing world. Ecosphere 10:e02650.</t>
+  </si>
+  <si>
+    <t>Wind erosion and dust from US drylands: a review of causes, consequences, and solutions in a changing world</t>
+  </si>
+  <si>
+    <t>Ecosphere</t>
+  </si>
+  <si>
+    <t>https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1002/ecs2.2650</t>
+  </si>
+  <si>
+    <t>Duniway_Ecosphere_2019</t>
+  </si>
+  <si>
+    <t>Winkler, D. E., D. M. Backer, J. Belnap, J. B. Bradford, B. J. Butterfield, S. M. Copeland, M. C. Duniway, A. M. Faist, S. E. Fick, S. L. Jensen, A. T. Kramer, R. Mann, R. T. Massatti, M. L. McCormick, S. M. 
 Munson, P. Olwell, S. D. Parr, A. A. Pfenningwerth, A. M. Pilmanis, B. A. Richardson, E. Samuel, K. See, K. E. Young, and S. C. Reed. 2018. Beyond traditional ecological restoration on the Colorado Plateau. Restoration ecology 26:1055 -1060.</t>
   </si>
   <si>
-    <t xml:space="preserve">Beyond traditional ecological restoration on the Colorado Plateau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restoration Ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1111/rec.12876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winkler_Restoration_Ecology_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gardner, T., M. Benzie, J. Borner, E. Dawkins, S. Fick, R. Garrett, J. Godar, A. Grimard, S. Lake, R. Larsen, N. Mardas, C. McDermott, P. Meyfroidt, M. Osbeck, M. Persson, T. Sembres, C. Suavet, B. Strassburg, A. Trevisan, C. West, and P. Wolvekamp. 2018. Transparency and sustainability in global commodity supply chains. World Development.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparency and sustainability in global commodity supply chains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0305750X18301736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gardner_World_Development_2018</t>
+    <t>Beyond traditional ecological restoration on the Colorado Plateau</t>
+  </si>
+  <si>
+    <t>Restoration Ecology</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/rec.12876</t>
+  </si>
+  <si>
+    <t>Winkler_Restoration_Ecology_2018</t>
+  </si>
+  <si>
+    <t>Gardner, T., M. Benzie, J. Borner, E. Dawkins, S. Fick, R. Garrett, J. Godar, A. Grimard, S. Lake, R. Larsen, N. Mardas, C. McDermott, P. Meyfroidt, M. Osbeck, M. Persson, T. Sembres, C. Suavet, B. Strassburg, A. Trevisan, C. West, and P. Wolvekamp. 2018. Transparency and sustainability in global commodity supply chains. World Development.</t>
+  </si>
+  <si>
+    <t>Transparency and sustainability in global commodity supply chains</t>
+  </si>
+  <si>
+    <t>World Development</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0305750X18301736</t>
+  </si>
+  <si>
+    <t>Gardner_World_Development_2018</t>
   </si>
   <si>
     <t xml:space="preserve">Hedlund, J., S. Fick, H. Carlsen, and M. Benzie. 2018. Quantifying transnational climate impact exposure: New perspectives on the global distribution of climate risk. Global Environmental Change 52:75 - 85. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantifying transnational climate impact exposure: New perspectives on the global distribution of climate risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Environmental Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0959378017312505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedlund_Global_Environmental_Change_2018</t>
+    <t>Quantifying transnational climate impact exposure: New perspectives on the global distribution of climate risk</t>
+  </si>
+  <si>
+    <t>Global Environmental Change</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0959378017312505</t>
+  </si>
+  <si>
+    <t>Hedlund_Global_Environmental_Change_2018</t>
   </si>
   <si>
     <t xml:space="preserve">Lusher, L., C. He, and S. Fick. 2018. Are professional basketball players reference-dependent? Applied Economics 50:3937-3948. </t>
   </si>
   <si>
-    <t xml:space="preserve">Are professional basketball players reference-dependent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tandfonline.com/doi/abs/10.1080/00036846.2018.1430345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lusher_Applied_Economics_2018</t>
+    <t>Are professional basketball players reference-dependent?</t>
+  </si>
+  <si>
+    <t>Applied Economics</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/abs/10.1080/00036846.2018.1430345</t>
+  </si>
+  <si>
+    <t>Lusher_Applied_Economics_2018</t>
   </si>
   <si>
     <t xml:space="preserve">Morales, L. V., C. S. Sevillano-Rios, S. Fick, and T. P. Young. 2018. Differential seedling regeneration patterns across forest - grassland ecotones in two tropical treeline species (Polylepis spp.). Austral Ecology 43:514 -526. </t>
   </si>
   <si>
-    <t xml:space="preserve">Differential seedling regeneration patterns across forest-grassland ecotones in two tropical treeline species (Polylepis spp.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austral Ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1111/aec.12588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morales_Austral_Ecology_2018</t>
+    <t>Differential seedling regeneration patterns across forest-grassland ecotones in two tropical treeline species (Polylepis spp.)</t>
+  </si>
+  <si>
+    <t>Austral Ecology</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/aec.12588</t>
+  </si>
+  <si>
+    <t>Morales_Austral_Ecology_2018</t>
   </si>
   <si>
     <t xml:space="preserve">Fick, S. E., and R. R. Evett. 2018. Distribution modelling of pre-Columbian California grasslands with soil phytoliths: New insights for prehistoric grassland ecology and restoration. PloS one 13:e0194315. </t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution modelling of pre-Columbian California grasslands with soil phytoliths: New insights for prehistoric grassland ecology and restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLOS One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0194315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_PLOS_One_2018</t>
+    <t>Distribution modelling of pre-Columbian California grasslands with soil phytoliths: New insights for prehistoric grassland ecology and restoration</t>
+  </si>
+  <si>
+    <t>PLOS One</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0194315</t>
+  </si>
+  <si>
+    <t>Fick_PLOS_One_2018</t>
   </si>
   <si>
     <t xml:space="preserve">Fick, S. E., and R. J. Hijmans. 2017. WorldClim 2: new 1-km spatial resolution climate surfaces for global land areas. International Journal of Climatology 37:4302-4315. </t>
   </si>
   <si>
-    <t xml:space="preserve">WorldClim 2: new 1-km spatial resolution climate surfaces for global land areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Journal of Climatology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/joc.5086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_International_Journal_of_Climatology_2017</t>
+    <t>WorldClim 2: new 1-km spatial resolution climate surfaces for global land areas</t>
+  </si>
+  <si>
+    <t>International Journal of Climatology</t>
+  </si>
+  <si>
+    <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/joc.5086</t>
+  </si>
+  <si>
+    <t>Fick_International_Journal_of_Climatology_2017</t>
   </si>
   <si>
     <t xml:space="preserve">Persson, L., S. Karlsson-Vinkhuyzen, A. Lai, Asa Persson, and S. Fick. 2017. The Globally Harmonized System of Classification and Labelling of Chemicals - Explaining the Legal Implementation Gap. Sustainability 9:2176. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Globally Harmonized System of Classification and Labelling of Chemicals - Explaining the Legal Implementation Gap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mdpi.com/2071-1050/9/12/2176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persson_Sustainability_2017</t>
+    <t>The Globally Harmonized System of Classification and Labelling of Chemicals - Explaining the Legal Implementation Gap</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2071-1050/9/12/2176</t>
+  </si>
+  <si>
+    <t>Persson_Sustainability_2017</t>
   </si>
   <si>
     <t xml:space="preserve">Stuble, K. L., S. E. Fick, and T. P. Young. 2017. Every restoration is unique: testing year effects and site effects as drivers of initial restoration trajectories. Journal of Applied Ecology 54:1051 - 1057. </t>
   </si>
   <si>
-    <t xml:space="preserve">Every restoration is unique: testing year effects and site effects as drivers of initial restoration trajectories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">journal of Applied Ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1111/1365-2664.12861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuble_journal_of_Applied_Ecology_2017</t>
+    <t>Every restoration is unique: testing year effects and site effects as drivers of initial restoration trajectories</t>
+  </si>
+  <si>
+    <t>journal of Applied Ecology</t>
+  </si>
+  <si>
+    <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1111/1365-2664.12861</t>
+  </si>
+  <si>
+    <t>Stuble_journal_of_Applied_Ecology_2017</t>
   </si>
   <si>
     <t xml:space="preserve">Fick, S. E., C. Decker, M. C. Duniway, and M. E. Miller. 2016. Small-scale barriers mitigate desertification processes and enhance plant recruitment in a degraded semiarid grassland. Ecosphere 7:e01354. </t>
   </si>
   <si>
-    <t xml:space="preserve">Small-scale barriers mitigate desertification processes and enhance plant recruitment in a degraded semiarid grassland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1002/ecs2.1354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_Ecosphere_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young, D. J., L. M. Porensky, K. M. Wolf, S. E. Fick, and T. P. Young. 2015. Burning reveals cryptic plant diversity and promotes coexistence in a California prairie restoration experiment. Ecosphere 6:1- 11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burning reveals cryptic plant diversity and promotes coexistence in a California prairie restoration experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1890/ES14-00303.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young_Ecosphere_2015</t>
+    <t>Small-scale barriers mitigate desertification processes and enhance plant recruitment in a degraded semiarid grassland</t>
+  </si>
+  <si>
+    <t>https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1002/ecs2.1354</t>
+  </si>
+  <si>
+    <t>Fick_Ecosphere_2016</t>
+  </si>
+  <si>
+    <t>Young, D. J., L. M. Porensky, K. M. Wolf, S. E. Fick, and T. P. Young. 2015. Burning reveals cryptic plant diversity and promotes coexistence in a California prairie restoration experiment. Ecosphere 6:1- 11.</t>
+  </si>
+  <si>
+    <t>Burning reveals cryptic plant diversity and promotes coexistence in a California prairie restoration experiment</t>
+  </si>
+  <si>
+    <t>https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1890/ES14-00303.1</t>
+  </si>
+  <si>
+    <t>Young_Ecosphere_2015</t>
   </si>
   <si>
     <t xml:space="preserve">Young, T. P., E. P. Zefferman, K. J. Vaughn, and S. Fick. 2015. Initial success of native grasses is contingent on multiple interactions among exotic grass competition, temporal priority, rainfall and site effects. AoB Plants 7. </t>
   </si>
   <si>
-    <t xml:space="preserve">Initial success of native grasses is contingent on multiple interactions among exotic grass competition, temporal priority, rainfall and site effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AoB Plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://academic.oup.com/aobpla/article-abstract/doi/10.1093/aobpla/plu081/198106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young_AoB_Plants_2015</t>
+    <t>Initial success of native grasses is contingent on multiple interactions among exotic grass competition, temporal priority, rainfall and site effects</t>
+  </si>
+  <si>
+    <t>AoB Plants</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/aobpla/article-abstract/doi/10.1093/aobpla/plu081/198106</t>
+  </si>
+  <si>
+    <t>Young_AoB_Plants_2015</t>
   </si>
   <si>
     <t xml:space="preserve">Zefferman, E., J. T. Stevens, G. K. Charles, M. Dunbar-Irwin, T. Emam, S. Fick, L. V. Morales, K. M. Wolf, D. J. Young, and T. P. Young. 2015. Plant communities in harsh sites are less invaded: a summary of observations and proposed explanations. AoB Plants 7. </t>
   </si>
   <si>
-    <t xml:space="preserve">Plant communities in harsh sites are less invaded: a summary of observations and proposed explanations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://academic.oup.com/aobpla/article-abstract/doi/10.1093/aobpla/plv056/201554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zefferman_AoB_Plants_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green, J. M., Croft, S. A., Duran, A. P., Balmford, A., Burgess, N. D., Fick, S., ... &amp; Young, L. E. (2019). Linking global drivers of agricultural trade to on-the-ground impacts on biodiversity. PNAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linking global drivers of agricultural trade to on-the-ground impacts on biodiversity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pnas.org/content/116/46/23202.short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green_PNAS_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick, S. E., Day, N., Duniway, M. C., Hoy‐Skubik, S., &amp; Barger, N. N. (2019). Microsite enhancements for soil stabilization and rapid biocrust colonization in degraded drylands. Restoration Ecology.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsite enhancements for soil stabilization and rapid biocrust colonization in degraded drylands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1111/rec.13071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_Restoration_Ecology_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koontz, M. J., North, M. P., Werner, C. M., Fick, S. E., &amp; Latimer, A. M. (2020). Local forest structure variability increases resilience to wildfire in dry western US coniferous forests. Ecology letters, 23(3), 483-494.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local forest structure variability increases resilience to wildfire in dry western US coniferous forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecology Letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1111/ele.13447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koontz_Ecology_Letters_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick, Stephen E., Travis W. Nauman, Colby C. Brungard, and Michael C. Duniway. 2021. “Evaluating Natural Experiments in Ecology: Using Synthetic Controls in Assessments of Remotely Sensed Land Treatments.” Ecological Applications 31(3). doi: 10.1002/eap.2264.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluating natural experiments in ecology: using synthetic controls in assessments of remotely sensed land treatments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecological Applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://authorservices.wiley.com/api/pdf/fullArticle/16946936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick_Ecological_Applications_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rettig, E. M., Fick, S. E., &amp; Hijmans, R. J. (2020). The Female Empowerment Index (FEMI): spatial and temporal variation in women's empowerment in Nigeria. Heliyon, 6(5), e03829.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Female Empowerment Index (FEMI): spatial and temporal variation in women's empowerment in Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/j.heliyon.2020.e03829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rettig_Heliyon_2020.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rettig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of Ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth System Science Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote Sensing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agronomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant and Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth Surfaces Processes and Landforms</t>
+    <t>Plant communities in harsh sites are less invaded: a summary of observations and proposed explanations</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/aobpla/article-abstract/doi/10.1093/aobpla/plv056/201554</t>
+  </si>
+  <si>
+    <t>Zefferman_AoB_Plants_2015</t>
+  </si>
+  <si>
+    <t>Green, J. M., Croft, S. A., Duran, A. P., Balmford, A., Burgess, N. D., Fick, S., ... &amp; Young, L. E. (2019). Linking global drivers of agricultural trade to on-the-ground impacts on biodiversity. PNAS</t>
+  </si>
+  <si>
+    <t>Linking global drivers of agricultural trade to on-the-ground impacts on biodiversity</t>
+  </si>
+  <si>
+    <t>PNAS</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/116/46/23202.short</t>
+  </si>
+  <si>
+    <t>Green_PNAS_2019</t>
+  </si>
+  <si>
+    <t>Fick, S. E., Day, N., Duniway, M. C., Hoy‐Skubik, S., &amp; Barger, N. N. (2019). Microsite enhancements for soil stabilization and rapid biocrust colonization in degraded drylands. Restoration Ecology.</t>
+  </si>
+  <si>
+    <t>Microsite enhancements for soil stabilization and rapid biocrust colonization in degraded drylands</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/rec.13071</t>
+  </si>
+  <si>
+    <t>Fick_Restoration_Ecology_2019</t>
+  </si>
+  <si>
+    <t>Koontz, M. J., North, M. P., Werner, C. M., Fick, S. E., &amp; Latimer, A. M. (2020). Local forest structure variability increases resilience to wildfire in dry western US coniferous forests. Ecology letters, 23(3), 483-494.</t>
+  </si>
+  <si>
+    <t>Local forest structure variability increases resilience to wildfire in dry western US coniferous forests</t>
+  </si>
+  <si>
+    <t>Ecology Letters</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/ele.13447</t>
+  </si>
+  <si>
+    <t>Koontz_Ecology_Letters_2020</t>
+  </si>
+  <si>
+    <t>Fick, Stephen E., Travis W. Nauman, Colby C. Brungard, and Michael C. Duniway. 2021. “Evaluating Natural Experiments in Ecology: Using Synthetic Controls in Assessments of Remotely Sensed Land Treatments.” Ecological Applications 31(3). doi: 10.1002/eap.2264.</t>
+  </si>
+  <si>
+    <t>Evaluating natural experiments in ecology: using synthetic controls in assessments of remotely sensed land treatments</t>
+  </si>
+  <si>
+    <t>Ecological Applications</t>
+  </si>
+  <si>
+    <t>https://authorservices.wiley.com/api/pdf/fullArticle/16946936</t>
+  </si>
+  <si>
+    <t>Fick</t>
+  </si>
+  <si>
+    <t>Rettig, E. M., Fick, S. E., &amp; Hijmans, R. J. (2020). The Female Empowerment Index (FEMI): spatial and temporal variation in women's empowerment in Nigeria. Heliyon, 6(5), e03829.</t>
+  </si>
+  <si>
+    <t>The Female Empowerment Index (FEMI): spatial and temporal variation in women's empowerment in Nigeria</t>
+  </si>
+  <si>
+    <t>Heliyon</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.heliyon.2020.e03829</t>
+  </si>
+  <si>
+    <t>Rettig</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Journal of Ecology</t>
+  </si>
+  <si>
+    <t>Earth System Science Data</t>
+  </si>
+  <si>
+    <t>Remote Sensing</t>
+  </si>
+  <si>
+    <t>Agronomy</t>
+  </si>
+  <si>
+    <t>Plant and Soil</t>
+  </si>
+  <si>
+    <t>Earth Surfaces Processes and Landforms</t>
+  </si>
+  <si>
+    <t>Fick_Ecological_Applications_2021</t>
+  </si>
+  <si>
+    <t>Rettig_Heliyon_2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -591,7 +566,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -599,85 +574,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -736,32 +660,325 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.29"/>
+    <col min="1" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,8 +1004,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
         <v>2017</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -804,8 +1021,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
         <v>2018</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -821,11 +1038,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
         <v>2016</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2018</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -839,34 +1056,24 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -886,7 +1093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -896,11 +1103,11 @@
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -910,17 +1117,17 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>2008</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>3.92</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -930,17 +1137,17 @@
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>2008</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>3.92</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -950,41 +1157,33 @@
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>2008</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1013,8 +1212,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1032,19 +1231,19 @@
       <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f aca="false">LEFT(C2,FIND(",",C2) - 1)</f>
+        <f t="shared" ref="I2:I21" si="0">LEFT(C2,FIND(",",C2) - 1)</f>
         <v>Fick</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1062,19 +1261,19 @@
       <c r="F3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f aca="false">LEFT(C3,FIND(",",C3) - 1)</f>
+        <f t="shared" si="0"/>
         <v>Fick</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
         <v>2019</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1092,19 +1291,19 @@
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f aca="false">LEFT(C4,FIND(",",C4) - 1)</f>
+        <f t="shared" si="0"/>
         <v>Fick</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
         <v>2019</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1122,19 +1321,19 @@
       <c r="F5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f aca="false">LEFT(C5,FIND(",",C5) - 1)</f>
+        <f t="shared" si="0"/>
         <v>Duniway</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
         <v>2018</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1152,19 +1351,19 @@
       <c r="F6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>11</v>
       </c>
-      <c r="I6" s="0" t="str">
-        <f aca="false">LEFT(C6,FIND(",",C6) - 1)</f>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
         <v>Winkler</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
         <v>2018</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1182,19 +1381,19 @@
       <c r="F7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>11</v>
       </c>
-      <c r="I7" s="0" t="str">
-        <f aca="false">LEFT(C7,FIND(",",C7) - 1)</f>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
         <v>Gardner</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
         <v>2018</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1212,19 +1411,19 @@
       <c r="F8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>9</v>
       </c>
-      <c r="I8" s="0" t="str">
-        <f aca="false">LEFT(C8,FIND(",",C8) - 1)</f>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
         <v>Hedlund</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
         <v>2018</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1242,19 +1441,19 @@
       <c r="F9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" s="0" t="str">
-        <f aca="false">LEFT(C9,FIND(",",C9) - 1)</f>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
         <v>Lusher</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
         <v>2018</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1272,19 +1471,19 @@
       <c r="F10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="0" t="str">
-        <f aca="false">LEFT(C10,FIND(",",C10) - 1)</f>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
         <v>Morales</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
         <v>2018</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1302,19 +1501,19 @@
       <c r="F11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>8</v>
       </c>
-      <c r="I11" s="0" t="str">
-        <f aca="false">LEFT(C11,FIND(",",C11) - 1)</f>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
         <v>Fick</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
         <v>2017</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1332,19 +1531,19 @@
       <c r="F12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="0" t="str">
-        <f aca="false">LEFT(C12,FIND(",",C12) - 1)</f>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
         <v>Fick</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
         <v>2017</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1362,19 +1561,19 @@
       <c r="F13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" s="0" t="str">
-        <f aca="false">LEFT(C13,FIND(",",C13) - 1)</f>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
         <v>Persson</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
         <v>2017</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1392,19 +1591,19 @@
       <c r="F14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>8</v>
       </c>
-      <c r="I14" s="0" t="str">
-        <f aca="false">LEFT(C14,FIND(",",C14) - 1)</f>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
         <v>Stuble</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
         <v>2016</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1422,19 +1621,19 @@
       <c r="F15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>6</v>
       </c>
-      <c r="I15" s="0" t="str">
-        <f aca="false">LEFT(C15,FIND(",",C15) - 1)</f>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
         <v>Fick</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
         <v>2015</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1452,19 +1651,19 @@
       <c r="F16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="I16" s="0" t="str">
-        <f aca="false">LEFT(C16,FIND(",",C16) - 1)</f>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
         <v>Young</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
         <v>2015</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1482,19 +1681,19 @@
       <c r="F17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="str">
-        <f aca="false">LEFT(C17,FIND(",",C17) - 1)</f>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
         <v>Young</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
         <v>2015</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1512,19 +1711,19 @@
       <c r="F18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="str">
-        <f aca="false">LEFT(C18,FIND(",",C18) - 1)</f>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
         <v>Zefferman</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
         <v>2019</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1542,19 +1741,19 @@
       <c r="F19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1">
         <v>11</v>
       </c>
-      <c r="I19" s="0" t="str">
-        <f aca="false">LEFT(C19,FIND(",",C19) - 1)</f>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
         <v>Green</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
         <v>2019</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1572,19 +1771,19 @@
       <c r="F20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="1">
         <v>12</v>
       </c>
-      <c r="I20" s="0" t="str">
-        <f aca="false">LEFT(C20,FIND(",",C20) - 1)</f>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
         <v>Fick</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
         <v>2020</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1602,247 +1801,212 @@
       <c r="F21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="str">
-        <f aca="false">LEFT(C21,FIND(",",C21) - 1)</f>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
         <v>Koontz</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
         <v>2021</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" s="0" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
         <v>150</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://onlinelibrary.wiley.com/doi/abs/10.1002/esp.4731"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://www.sciencedirect.com/science/article/pii/S1550742419300648"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://onlinelibrary.wiley.com/doi/abs/10.1002/eco.2089"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1002/ecs2.2650"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://onlinelibrary.wiley.com/doi/abs/10.1111/rec.12876"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://www.sciencedirect.com/science/article/pii/S0305750X18301736"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://www.sciencedirect.com/science/article/pii/S0959378017312505"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://www.tandfonline.com/doi/abs/10.1080/00036846.2018.1430345"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://onlinelibrary.wiley.com/doi/abs/10.1111/aec.12588"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0194315"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/joc.5086"/>
-    <hyperlink ref="F13" r:id="rId12" display="https://www.mdpi.com/2071-1050/9/12/2176"/>
-    <hyperlink ref="F14" r:id="rId13" display="https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1111/1365-2664.12861"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1002/ecs2.1354"/>
-    <hyperlink ref="F16" r:id="rId15" display="https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1890/ES14-00303.1"/>
-    <hyperlink ref="F17" r:id="rId16" display="https://academic.oup.com/aobpla/article-abstract/doi/10.1093/aobpla/plu081/198106"/>
-    <hyperlink ref="F18" r:id="rId17" display="https://academic.oup.com/aobpla/article-abstract/doi/10.1093/aobpla/plv056/201554"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://www.pnas.org/content/116/46/23202.short"/>
-    <hyperlink ref="F20" r:id="rId19" display="https://onlinelibrary.wiley.com/doi/abs/10.1111/rec.13071"/>
-    <hyperlink ref="F21" r:id="rId20" display="https://onlinelibrary.wiley.com/doi/abs/10.1111/ele.13447"/>
-    <hyperlink ref="F23" r:id="rId21" display="https://doi.org/10.1016/j.heliyon.2020.e03829"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F23" r:id="rId21"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.57"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
         <v>20190726</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>20190601</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>20190701</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>20190601</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>20190701</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>20190729</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
         <v>20190729</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/RESUME.xlsx
+++ b/RESUME.xlsx
@@ -15,16 +15,11 @@
     <sheet name="Reviews" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>Start</t>
   </si>
@@ -506,18 +501,130 @@
   </si>
   <si>
     <t>Rettig_Heliyon_2020</t>
+  </si>
+  <si>
+    <t>Drivers of seedling establishment success in dryland restoration efforts</t>
+  </si>
+  <si>
+    <t>Campfire Conversations at the 2020 Annual Meeting: Insights &amp; Lessons Learned From “Cuss-and-Discuss” Rather Than “Chalk-and-Talk”</t>
+  </si>
+  <si>
+    <t>Nature ecology &amp; evolution</t>
+  </si>
+  <si>
+    <t>Rangelands</t>
+  </si>
+  <si>
+    <r>
+      <t>Schulz, Terri T., et al. "Campfire Conversations at the 2020 Annual Meeting: Insights &amp; Lessons Learned From “Cuss-and-Discuss” Rather Than “Chalk-and-Talk”." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rangelands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (2021).</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41559-021-01510-3</t>
+  </si>
+  <si>
+    <t>shackelford_NatureEcoEvo_2021.pdf</t>
+  </si>
+  <si>
+    <t>Schulz_Rangelands_2021.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.rala.2021.04.003</t>
+  </si>
+  <si>
+    <t>Shackelford</t>
+  </si>
+  <si>
+    <t>Schulz</t>
+  </si>
+  <si>
+    <t>Fick, S.E, M. Duniway, T. Nauman, C. Brungard (2022). What determines the effectiveness of Pinyon-Juniper clearing treatments? Evidence from the remote sensing archive and counter-factual scenarios. Forest Ecology and Management</t>
+  </si>
+  <si>
+    <r>
+      <t>Shackelford, Nancy, et al. (2021) "Drivers of seedling establishment success in dryland restoration efforts." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Ecology &amp; Evolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 5.9: 1283-1290.</t>
+    </r>
+  </si>
+  <si>
+    <t>What determines the effectiveness of Pinyon-Juniper clearing treatments? Evidence from the remote sensing archive and counter-factual scenarios</t>
+  </si>
+  <si>
+    <t>Forest Ecology and Management</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>In Review</t>
+  </si>
+  <si>
+    <t>Baker, Z. and S. Fick (2022). Loving it to Death: Land Use Conflict, Outdoor Recreation and the Contradictions of Wilderness in Southeast Utah, USA. Environmental Sociology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loving it to Death: Land Use Conflict, Outdoor Recreation and the Contradictions of Wilderness in Southeast Utah, USA</t>
+  </si>
+  <si>
+    <t>Environmental Sociology</t>
+  </si>
+  <si>
+    <t>Baker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -550,8 +657,153 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +816,181 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -573,32 +998,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Note 2" xfId="43"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1868,6 +2490,116 @@
       </c>
       <c r="I23" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="12">
+        <v>4</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1893,9 +2625,10 @@
     <hyperlink ref="F20" r:id="rId19"/>
     <hyperlink ref="F21" r:id="rId20"/>
     <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F25" r:id="rId22" tooltip="Persistent link using digital object identifier"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
